--- a/data/financial_statements/socf/MS.xlsx
+++ b/data/financial_statements/socf/MS.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -119,9 +239,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -174,12 +291,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -476,1183 +590,1186 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN33"/>
+  <dimension ref="A1:AO33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
-        <v>2632000000</v>
+        <v>-8913000000</v>
       </c>
       <c r="C2">
-        <v>2495000000</v>
+        <v>2662000000</v>
       </c>
       <c r="D2">
-        <v>3666000000</v>
+        <v>2536000000</v>
       </c>
       <c r="E2">
-        <v>3696000000</v>
+        <v>3715000000</v>
       </c>
       <c r="F2">
-        <v>3707000000</v>
+        <v>3716000000</v>
       </c>
       <c r="G2">
+        <v>3724000000</v>
+      </c>
+      <c r="H2">
         <v>3512000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>4168000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>3412000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>2751000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>3236000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>1780000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>2305000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>2218000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>2246000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>2468000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>1558000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>2154000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>2467000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>2704000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>663000000</v>
-      </c>
-      <c r="V2">
-        <v>1791000000</v>
       </c>
       <c r="W2">
         <v>1791000000</v>
       </c>
       <c r="X2">
+        <v>1791000000</v>
+      </c>
+      <c r="Y2">
         <v>1971000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>1680000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>1640000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>1646000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>1157000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>936000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>1049000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>1831000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>2463000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>-1586000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>1752000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>1917000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>1584000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>173000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>1018000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>1191000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>1231000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3">
         <v>928000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>921000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>942000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1237000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1035000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1057000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>887000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1406000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>853000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>686000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>824000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>656000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>654000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>675000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>658000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>469000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>468000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>517000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>390000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>413000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>451000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>455000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>434000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>379000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>478000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>464000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>415000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>410000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>369000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>333000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>321000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>413000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>136000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>286000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>326000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>427000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>368000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>356000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>360000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4">
         <v>715000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>824000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>539000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>460000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>540000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>621000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>325000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>-125000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>429000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>188000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>1605000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>469000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>290000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>288000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>237000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>864000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>192000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>187000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>310000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>3210000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>360000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>97000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>288000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>1847000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>85000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>406000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>419000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>1563000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>415000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>259000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>372000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>187000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>210000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>226000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>272000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>254000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>312000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>263000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>188000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
         <v>-5227000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>11966000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1227000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>3466000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-332000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>16361000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-18721000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>-12676000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-9309000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>15830000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>-23619000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>5368000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>-5183000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>-1519000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>1567000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>3364000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>5187000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>3740000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>-13019000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>-1385000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>-1786000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>-4457000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>-1687000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>2429000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>7737000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>-11436000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>899000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>-6276000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>6443000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>5389000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>-5990000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>-727000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>27000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>4145000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>-1241000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>13000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>7644000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>-3613000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>2730000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6">
         <v>4907000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>25193000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-29247000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>6373000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>-17109000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>-1594000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>16487000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-14970000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>2319000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>-22452000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>12414000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>10881000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>-10256000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>4669000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>2140000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>9978000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>5286000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>6250000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>-12698000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>-12455000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>21983000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>-21363000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>2714000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>-6881000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>-12283000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>13294000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>-905000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>12585000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>-19619000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>6324000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>-18273000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>-9528000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>-1624000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>-10747000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>-12913000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>12125000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>-19109000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>9371000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>-6990000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7">
         <v>-3436000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>-6275000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>17994000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>-12071000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>9912000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>6647000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>3270000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>16005000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-4813000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>3242000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>-4247000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>-2779000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>11199000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>1551000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>9971000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>-13373000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>-8743000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>7924000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>1129000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>-6048000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>2457000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>9154000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>-3556000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>-1936000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>-6100000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>7757000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>2192000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>-5718000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>11833000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>-9534000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>8052000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>4636000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>1363000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>5106000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>16866000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>5197000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>8185000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>6339000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>6976000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
         <v>-8102000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>-20252000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>5069000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>4358000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>-21989000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>20463000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>903000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>-17540000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>35079000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>14415000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>2621000000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>23977000000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>10039000000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>33832000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>-19646000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="O9">
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P9">
         <v>-121000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>18000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>-74000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>-113000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10">
         <v>-7553000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>14913000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>239000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>349000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>2128000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>4615000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>26879000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-25390000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-6867000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>-16810000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>23836000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>-136000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>13337000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>10531000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>17041000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>-7179000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>14565000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>-12729000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>12648000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>4044000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>5610000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>-14249000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>90000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>-2482000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>-8443000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>12131000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>4177000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>3500000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>490000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>4602000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>-13055000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>-6605000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>1864000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>1046000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>4781000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>18189000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>-1582000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>13907000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>4495000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11">
         <v>-857000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>-799000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-652000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-650000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-619000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>-514000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-525000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-539000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-123000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>-428000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>-354000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>-366000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>-452000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>-479000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>-529000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>-504000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>-453000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>-498000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>-410000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>-452000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>-454000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>-373000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>-350000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>-335000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>-296000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>-330000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>-315000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>-409000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>-344000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>-300000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>-320000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>-459000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>-120000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>-415000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>2000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>-372000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>-361000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>-320000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>-263000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1661,664 +1778,664 @@
         <v>0</v>
       </c>
       <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>-2648000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>3807000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>998000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>27000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>795000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>32000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>135000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>578000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>39000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>49000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>481000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13">
         <v>1633000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>3528000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>8413000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>-1362000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>-8541000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>14770000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>-12870000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>1177000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>1311000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>-16580000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>-7418000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>-89000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>-2182000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>-5795000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>-5357000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>-7161000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>-1075000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>-1141000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>-2547000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>-162000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>-7007000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>9557000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>-774000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>-2514000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>605000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>-1759000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>-5160000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>-8642000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>2475000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>2432000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>33000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>-5038000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>1723000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>-6323000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>-5354000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>-6690000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>-4390000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>-2001000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>-1294000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14">
         <v>-4937000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-11256000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>-7603000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-13294000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>-5987000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>-11139000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>-6518000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>-4905000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-5008000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>4498000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>-13336000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>-7385000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>-5265000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>-4321000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>-1341000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>-1150000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>-3235000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>-742000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>-3965000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>-2949000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>-4062000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>-4321000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>-1044000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>-1671000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>-2883000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>-1209000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>-3641000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>-4544000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>-2195000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>-6561000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>-2618000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>-6091000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>-2052000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>-7585000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>-4601000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>-3988000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>-2674000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>-1192000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>-2063000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15">
         <v>-4161000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-8527000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>158000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>-15306000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>-15147000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>3117000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>-22561000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>-460000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>-3820000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>-12510000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>-21108000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>-7840000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>-7899000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>-10595000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>-7227000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>-8815000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>-4763000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>-2381000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>-6922000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>-3563000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>-11523000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>4863000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>-2168000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>-4520000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>-2574000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>-3298000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>-9116000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>-12597000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>-64000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>-4429000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>-2905000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>-11561000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>346000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>-14291000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>-9818000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>-10472000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>-7386000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>-3464000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>-3139000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
         <v>7005000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>11069000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>9190000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>3257000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>8092000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>4462000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>4338000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>6224000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>-4264000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>2648000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>5634000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>-3249000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>-4873000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>2015000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>-3836000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>-720000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>745000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>1260000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>3993000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>-1433000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>5323000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>8806000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>6895000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>8637000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>-42000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>-723000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>4158000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>-5460000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>1458000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>4184000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>6623000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>2340000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>8292000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>-5435000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>-1441000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>-4676000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>-5091000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>603000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>-1635000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
         <v>-2608000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>-2837000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>-3681000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>-2847000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>-3628000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>-3018000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>-2582000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>-50000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>-30000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>-28000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>-1782000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>-1507000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>-1538000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>-1264000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>-1645000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>-1186000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>-1207000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>-1305000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>-1868000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>-1284000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>-1299000000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>-548000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>-1161000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>-1025000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>-1279000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>-653000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>-976000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>-638000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>-662000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>-634000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>-839000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>-286000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>-208000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>-292000000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>-672000000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>-240000000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>-137000000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>-8000000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>-306000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18">
         <v>994000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>1275000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>497000000</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
       </c>
       <c r="V18">
         <v>0</v>
@@ -2327,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
         <v>994000000</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
       </c>
       <c r="AD18">
         <v>0</v>
@@ -2339,663 +2456,663 @@
         <v>0</v>
       </c>
       <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
         <v>1493000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>0</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>994000000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>1788000000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>842000000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>854000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19">
         <v>-1405000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>-1304000000</v>
-      </c>
-      <c r="D19">
-        <v>-1314000000</v>
       </c>
       <c r="E19">
         <v>-1314000000</v>
       </c>
       <c r="F19">
+        <v>-1314000000</v>
+      </c>
+      <c r="G19">
         <v>-1356000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>-746000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>-755000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>-731000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>-680000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>-640000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>-688000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>-545000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>-670000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>-749000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>-663000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>-587000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>-673000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>-516000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>-599000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>-523000000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>-608000000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>-443000000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>-511000000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>-435000000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>-520000000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>-355000000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>-436000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>-359000000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>-423000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>-363000000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>-310000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>-252000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>-265000000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>-244000000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>-143000000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>-117000000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>-119000000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>-120000000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>-119000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20">
         <v>-8553000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-14913000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>5096000000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>19344000000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>8675000000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>-213000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>8563000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>29416000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>2300000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>1665000000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>44790000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>14018000000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>3162000000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>-1399000000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>-9720000000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>13336000000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>2671000000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>12024000000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>-1163000000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>1968000000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>6752000000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>-3172000000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>-3495000000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>5648000000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>-1063000000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>-4676000000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>1103000000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>7949000000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>6585000000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>2566000000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>2984000000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>8387000000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>4984000000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>2821000000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>2775000000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>-1985000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>23691000000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>-6702000000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>-2102000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21">
         <v>-4567000000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>-7985000000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>9291000000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>19715000000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>11783000000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>485000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>9564000000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>34859000000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>-2674000000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>3645000000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>47954000000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>9214000000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>-3919000000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>-1397000000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>-15864000000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>10843000000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>1536000000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>11463000000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>363000000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>-1272000000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>10168000000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>4643000000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>2722000000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>12825000000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>-2904000000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>-6407000000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>3849000000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>1492000000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>6958000000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>5753000000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>9951000000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>10189000000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>13797000000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>-1362000000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>519000000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>-6176000000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>19198000000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>-6227000000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>-4162000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22">
         <v>-3309000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>-3201000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>-1327000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>-896000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>-1381000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>145000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>-1418000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>1873000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>1857000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>442000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>-1344000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>1277000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>-1443000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>359000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>-464000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>-134000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>-446000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>-2108000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>860000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>264000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>1837000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>692000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>877000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>-2484000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>340000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>69000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>645000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>-968000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>-225000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>140000000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>-682000000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>-865000000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>-1066000000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>68000000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>59000000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>96000000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>437000000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>-123000000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>-612000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="AL23">
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM23">
         <v>-85000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>204000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>-584000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24">
         <v>-19590000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>-4800000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>8361000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>3862000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>-2617000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>8362000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>12464000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>10882000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>-11504000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>-25233000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>49338000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>2515000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>76000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>-1102000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>-6514000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>-5285000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>10892000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>-5755000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>6949000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>-527000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>6092000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>-4051000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>1521000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>3339000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>-13581000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>2495000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>-445000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>-8573000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>7159000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>6066000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>-6691000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>-8842000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>14941000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>-14539000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>-4459000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>2102000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>10582000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>4297000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>-4002000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
         <v>127725000000</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -3004,10 +3121,10 @@
         <v>0</v>
       </c>
       <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
         <v>105654000000</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -3016,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>82171000000</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -3028,10 +3145,10 @@
         <v>0</v>
       </c>
       <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>87196000000</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
       </c>
       <c r="R25">
         <v>0</v>
@@ -3040,10 +3157,10 @@
         <v>0</v>
       </c>
       <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
         <v>80395000000</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -3052,34 +3169,34 @@
         <v>0</v>
       </c>
       <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
         <v>77360000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>31469000000</v>
-      </c>
-      <c r="Z25">
-        <v>0</v>
       </c>
       <c r="AA25">
         <v>0</v>
       </c>
       <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
         <v>54083000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>40607000000</v>
-      </c>
-      <c r="AD25">
-        <v>0</v>
       </c>
       <c r="AE25">
         <v>0</v>
       </c>
       <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
         <v>46984000000</v>
-      </c>
-      <c r="AG25">
-        <v>0</v>
       </c>
       <c r="AH25">
         <v>0</v>
@@ -3088,10 +3205,10 @@
         <v>0</v>
       </c>
       <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
         <v>59883000000</v>
-      </c>
-      <c r="AK25">
-        <v>0</v>
       </c>
       <c r="AL25">
         <v>0</v>
@@ -3100,982 +3217,991 @@
         <v>0</v>
       </c>
       <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
         <v>46904000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26">
         <v>-19590000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>-4800000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>136086000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>3862000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>-2617000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>8362000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>118118000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>10882000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>-11504000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>-25233000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>131509000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>2515000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>76000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>-1102000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>80682000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>-5285000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>10892000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>-5755000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>87344000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>-527000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>6092000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>-4051000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>78881000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>34808000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>-13581000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>2495000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>53638000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>32034000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>7159000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>6066000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>40293000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>-8842000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>14941000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>-14539000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>55424000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>2102000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>10582000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>4297000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>42902000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27">
         <v>528000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>418000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>431000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>449000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>500000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>618000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>518000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>510000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>254000000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>394000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>154000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>328000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>233000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>299000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>293000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>177000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>217000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>205000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>321000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>251000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>257000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>249000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>269000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>342000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>302000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>275000000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>217000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>268000000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>225000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>316000000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>295000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>327000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>304000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>318000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>311000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>330000000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>291000000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>294000000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>265000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>4023000000</v>
+      </c>
+      <c r="C28">
         <v>-1405000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>-1304000000</v>
-      </c>
-      <c r="D28">
-        <v>-1314000000</v>
       </c>
       <c r="E28">
         <v>-1314000000</v>
       </c>
       <c r="F28">
+        <v>-1314000000</v>
+      </c>
+      <c r="G28">
         <v>-1356000000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>-746000000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>-755000000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>-731000000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>-680000000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>-640000000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>-688000000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>-545000000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>-670000000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>-749000000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>-663000000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>-587000000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>-673000000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>-516000000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>-599000000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>-523000000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>-608000000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>-443000000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>-511000000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>-435000000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>-520000000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>-355000000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>-436000000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>-359000000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>-423000000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>-363000000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>-310000000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>-252000000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>-265000000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>-244000000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>-143000000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>-117000000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>-119000000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>-120000000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>-119000000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>-0.4328</v>
+      </c>
+      <c r="C29">
         <v>-0.4634</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>-0.6163999999999999</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>-0.5976</v>
       </c>
-      <c r="E29">
-        <v>-0.3409</v>
-      </c>
       <c r="F29">
+        <v>-0.3344</v>
+      </c>
+      <c r="G29">
         <v>-0.3001</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>-0.2136</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>-0.1932</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>-0.1611</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>-0.2139</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>-0.4358</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>-0.885</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>-1.02</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>-1.633</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>-1.4024</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>-1.7382</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>-1.6593</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>-1.4301</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>-1.6633</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>-1.1824</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>-1.0343</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>-0.9152</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>-1.061</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>-1.1249</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>-1.7442</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>-1.6204</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>-2.5065</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>-2.948</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>-2.1472</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>-3.562</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>-2.5275</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>-2.7524</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>-2.3594</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>-3.0772</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>-3.4012</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>-3.7094</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>-3.5782</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>-4.403</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>-4.4301</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>-4.9341</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30">
         <v>-11858000000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>10632000000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>-4957000000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>-5064000000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>-3171000000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>-575000000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>21499000000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>-30083000000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>-10900000000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>-20920000000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>19627000000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>-3566000000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>10175000000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>7322000000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>13678000000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>-10070000000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>11769000000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>-15918000000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>9244000000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>-242000000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>3008000000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>-16666000000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>-2529000000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>-6388000000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>-10646000000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>9615000000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>2186000000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>591000000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>-1343000000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>2179000000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>-16211000000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>-5619000000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>-234000000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>-1496000000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>2712000000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>17335000000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>-3280000000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>12097000000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>2716000000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31">
         <v>1633000000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>3528000000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>8413000000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>-1362000000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>-8541000000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>14770000000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>-12870000000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>1177000000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>1311000000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>-16580000000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>-7418000000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>-89000000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>-2182000000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>-5795000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>-5357000000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>-7161000000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>-1075000000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>-1141000000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>-2547000000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>-162000000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>-7007000000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>9557000000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>-774000000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>-2514000000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>605000000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>-1759000000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>-5160000000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>-8642000000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>2475000000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>2432000000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>33000000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>-5038000000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>1723000000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>-6323000000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>-5354000000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>-6690000000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>-4390000000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>-2001000000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>-1294000000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32">
         <v>-1614000000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>-2837000000</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>-3681000000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>-1572000000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>-3628000000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>-3018000000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>-2582000000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>-50000000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>-30000000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>-28000000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>-1782000000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>-1010000000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>-1538000000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>-1264000000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>-1645000000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>-1186000000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>-1207000000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>-1305000000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>-1868000000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>-1284000000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>-1299000000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>-548000000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>-167000000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>-1025000000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>-1279000000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>-653000000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>-976000000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>-638000000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>-662000000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>-634000000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>654000000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>-286000000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>786000000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>1496000000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>-672000000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>602000000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>717000000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>-8000000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>-306000000</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33">
         <v>-1614000000</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>-2837000000</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>-3681000000</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>-1572000000</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>-3628000000</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>-3018000000</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>-2582000000</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>-50000000</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>-30000000</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>-28000000</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>-1782000000</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>-1010000000</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>-1538000000</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>-1264000000</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>-1645000000</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>-1186000000</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>-1207000000</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>-1305000000</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>-1868000000</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>-1284000000</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>-1299000000</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>-548000000</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>-167000000</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>-1025000000</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>-1279000000</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>-653000000</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>-976000000</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>-638000000</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>-662000000</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>-634000000</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>654000000</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>-286000000</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>786000000</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>1496000000</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>-672000000</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>602000000</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>717000000</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>-8000000</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>-306000000</v>
       </c>
     </row>
